--- a/amc_resources/ab_class_updated.xlsx
+++ b/amc_resources/ab_class_updated.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +377,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>amikacin</t>
+          <t>Amikacin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -394,7 +394,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>amoxicillin</t>
+          <t>Amoxicillin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -411,12 +411,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ampicillin</t>
+          <t>Amoxicillin,clavulanic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Beta-lactam/beta-lactamase-inhibitor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -428,63 +428,63 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>arbekacin</t>
+          <t>Ampicillin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aspoxicillin</t>
+          <t>Ampicillin,sulbactam</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Beta-lactam/beta-lactamase-inhibitor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>azidocillin</t>
+          <t>Arbekacin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>azithromycin</t>
+          <t>Aspoxicillin</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>azlocillin</t>
+          <t>Azidocillin</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -506,31 +506,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>aztreonam</t>
+          <t>Azithromycin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Monobactams</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bacampicillin</t>
+          <t>Azlocillin</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -540,31 +540,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bekanamycin</t>
+          <t>Aztreonam</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Monobactams</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>benzathine,benzylpenicillin</t>
+          <t>Bacampicillin</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -581,46 +581,46 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>benzylpenicillin</t>
+          <t>Bekanamycin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>biapenem</t>
+          <t>Benzathine,benzylpenicillin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>brodimoprim</t>
+          <t>Benzylpenicillin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Trimethoprim-derivatives</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -632,12 +632,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>carbenicillin</t>
+          <t>Biapenem</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -649,75 +649,75 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>carindacillin</t>
+          <t>Brodimoprim</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Trimethoprim-derivatives</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>carumonam</t>
+          <t>Carbenicillin</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Monobactams</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cefacetrile</t>
+          <t>Carindacillin</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>First-generation cephalosporins</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cefaclor</t>
+          <t>Carumonam</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>Monobactams</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cefadroxil</t>
+          <t>Cefacetrile</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -734,24 +734,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cefalexin</t>
+          <t>Cefaclor</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>First-generation cephalosporins</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cefaloridine</t>
+          <t>Cefadroxil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cefalotin</t>
+          <t>Cefalexin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -785,24 +785,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cefamandole</t>
+          <t>Cefaloridine</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>First-generation cephalosporins</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cefapirin</t>
+          <t>Cefalotin</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -819,24 +819,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cefatrizine</t>
+          <t>Cefamandole</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>First-generation cephalosporins</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cefazedone</t>
+          <t>Cefapirin</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -853,7 +853,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cefazolin</t>
+          <t>Cefatrizine</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -870,46 +870,46 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cefbuperazone</t>
+          <t>Cefazedone</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>First-generation cephalosporins</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cefcapene,pivoxil</t>
+          <t>Cefazolin</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>First-generation cephalosporins</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cefdinir</t>
+          <t>Cefbuperazone</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cefditoren,pivoxil</t>
+          <t>Cefcapene,pivoxil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -938,12 +938,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cefepime</t>
+          <t>Cefdinir</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fourth-generation cephalosporins</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -955,7 +955,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cefetamet,pivoxil</t>
+          <t>Cefditoren,pivoxil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,24 +972,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>cefiderocol</t>
+          <t>Cefepime</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Other cephalosporins</t>
+          <t>Fourth-generation cephalosporins</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cefixime</t>
+          <t>Cefetamet,pivoxil</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1006,29 +1006,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cefmenoxime</t>
+          <t>Cefiderocol</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Other cephalosporins</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cefmetazole</t>
+          <t>Cefixime</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1040,12 +1040,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cefminox</t>
+          <t>Cefmenoxime</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1057,12 +1057,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cefodizime</t>
+          <t>Cefmetazole</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cefonicid</t>
+          <t>Cefminox</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1091,7 +1091,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cefoperazone</t>
+          <t>Cefodizime</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ceforanide</t>
+          <t>Cefonicid</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1125,12 +1125,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cefoselis</t>
+          <t>Cefoperazone</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fourth-generation cephalosporins</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1142,12 +1142,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cefotaxime</t>
+          <t>Ceforanide</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1159,12 +1159,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cefotetan</t>
+          <t>Cefoselis</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>Fourth-generation cephalosporins</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1176,12 +1176,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cefotiam</t>
+          <t>Cefotaxime</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>cefoxitin</t>
+          <t>Cefotetan</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1210,12 +1210,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cefozopran</t>
+          <t>Cefotiam</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fourth-generation cephalosporins</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1227,12 +1227,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cefpiramide</t>
+          <t>Cefoxitin</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1244,7 +1244,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>cefpirome</t>
+          <t>Cefozopran</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1261,7 +1261,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cefpodoxime</t>
+          <t>Cefpiramide</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cefprozil</t>
+          <t>Cefpirome</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>Fourth-generation cephalosporins</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1295,75 +1295,75 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cefradine</t>
+          <t>Cefpodoxime,proxetil</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>First-generation cephalosporins</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cefroxadine</t>
+          <t>Cefprozil</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>First-generation cephalosporins</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cefsulodin</t>
+          <t>Cefradine</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>First-generation cephalosporins</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ceftaroline,fosamil</t>
+          <t>Cefroxadine</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fifth-generation cephalosporins</t>
+          <t>First-generation cephalosporins</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ceftazidime</t>
+          <t>Cefsulodin</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1380,41 +1380,41 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>cefteram,pivoxil</t>
+          <t>Ceftaroline,fosamil</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Fifth-generation cephalosporins</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ceftezole</t>
+          <t>Ceftazidime</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>First-generation cephalosporins</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ceftibuten</t>
+          <t>Ceftazidime,avibactam</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1424,14 +1424,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ceftizoxime</t>
+          <t>Cefteram,pivoxil</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1448,41 +1448,41 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ceftobiprole</t>
+          <t>Ceftezole</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fifth-generation cephalosporins</t>
+          <t>First-generation cephalosporins</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ceftolozane</t>
+          <t>Ceftibuten</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fifth-generation cephalosporins</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ceftriaxone</t>
+          <t>Ceftizoxime</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1499,46 +1499,46 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>cefuroxime</t>
+          <t>Ceftobiprole,medocaril</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>Fifth-generation cephalosporins</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>chloramphenicol</t>
+          <t>Ceftolozane,tazobactam</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Amphenicols</t>
+          <t>Fifth-generation cephalosporins</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>chlortetracycline</t>
+          <t>Ceftriaxone</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1550,12 +1550,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>cinoxacin</t>
+          <t>Cefuroxime</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1567,29 +1567,29 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ciprofloxacin</t>
+          <t>Chloramphenicol</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Amphenicols</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>clarithromycin</t>
+          <t>Chlortetracycline</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1601,29 +1601,29 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>clindamycin</t>
+          <t>Cinoxacin</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lincosamides</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>clofoctol</t>
+          <t>Ciprofloxacin</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Phenol derivatives</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1635,114 +1635,114 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>clometocillin</t>
+          <t>Clarithromycin</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>clomocycline</t>
+          <t>Clindamycin</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Lincosamides</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cloxacillin</t>
+          <t>Clofoctol</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Phenol derivatives</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>colistin</t>
+          <t>Clometocillin</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Polymyxins</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>dalbavancin</t>
+          <t>Clomocycline</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>dalfopristin,quinupristin</t>
+          <t>Cloxacillin</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Streptogramins</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>daptomycin</t>
+          <t>Colistin</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lipopeptides</t>
+          <t>Polymyxins</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1754,80 +1754,80 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>delafloxacin</t>
+          <t>Dalbavancin</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Glycopeptides</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>demeclocycline</t>
+          <t>Dalfopristin,quinupristin</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Streptogramins</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>dibekacin</t>
+          <t>Daptomycin</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Lipopeptides</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dicloxacillin</t>
+          <t>Delafloxacin</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dirithromycin</t>
+          <t>Demeclocycline</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1839,12 +1839,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>doripenem</t>
+          <t>Dibekacin</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1856,12 +1856,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>doxycycline</t>
+          <t>Dicloxacillin</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1873,12 +1873,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>enoxacin</t>
+          <t>Dirithromycin</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1890,24 +1890,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>epicillin</t>
+          <t>Doripenem</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>eravacycline</t>
+          <t>Doxycycline</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ertapenem</t>
+          <t>Enoxacin</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1941,29 +1941,29 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>erythromycin</t>
+          <t>Epicillin</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>faropenem</t>
+          <t>Eravacycline</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Penems</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1975,12 +1975,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>fidaxomicin</t>
+          <t>Ertapenem</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -1992,12 +1992,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>fleroxacin</t>
+          <t>Erythromycin</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2009,46 +2009,46 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>flomoxef</t>
+          <t>Faropenem</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>Penems</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>flucloxacillin</t>
+          <t>Fidaxomicin</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>flumequine</t>
+          <t>Fleroxacin</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2060,12 +2060,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>flurithromycin</t>
+          <t>Flomoxef</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2077,46 +2077,46 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>fosfomycin</t>
+          <t>Flucloxacillin</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Phosphonics</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>furazidin</t>
+          <t>Flumequine</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nitrofuran derivatives</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>fusidic</t>
+          <t>Flurithromycin</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Steroid antibacterials</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2128,12 +2128,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>garenoxacin</t>
+          <t>Fosfomycin</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Phosphonics</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2145,29 +2145,29 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>gatifloxacin</t>
+          <t>Furazidin</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Nitrofuran derivatives</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>gemifloxacin</t>
+          <t>Fusidic</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Steroid antibacterials</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2179,24 +2179,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>gentamicin</t>
+          <t>Garenoxacin</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>grepafloxacin</t>
+          <t>Gatifloxacin</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2213,46 +2213,46 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>hetacillin</t>
+          <t>Gemifloxacin</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>iclaprim</t>
+          <t>Gentamicin</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Trimethoprim-derivatives</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>imipenem</t>
+          <t>Grepafloxacin</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2264,46 +2264,46 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>isepamicin</t>
+          <t>Hetacillin</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>josamycin</t>
+          <t>Iclaprim</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Trimethoprim-derivatives</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>kanamycin</t>
+          <t>Imipenem,cilastatin</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2315,29 +2315,29 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>lascufloxacin</t>
+          <t>Imipenem,cilastatin,relebactam</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>latamoxef</t>
+          <t>Isepamicin</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2349,29 +2349,29 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>lefamulin</t>
+          <t>Josamycin</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pleuromutilin</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>levofloxacin</t>
+          <t>Kanamycin</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2383,7 +2383,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>levonadifloxacin</t>
+          <t>Lascufloxacin</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2400,12 +2400,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>lincomycin</t>
+          <t>Latamoxef</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lincosamides</t>
+          <t>Third-generation cephalosporins</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2417,12 +2417,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>linezolid</t>
+          <t>Lefamulin</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Oxazolidinones</t>
+          <t>Pleuromutilin</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>lomefloxacin</t>
+          <t>Levofloxacin</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2451,12 +2451,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>loracarbef</t>
+          <t>Levonadifloxacin</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporins</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2468,12 +2468,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>lymecycline</t>
+          <t>Lincomycin</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Lincosamides</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2485,29 +2485,29 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>mecillinam</t>
+          <t>Linezolid</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Oxazolidinones</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>meropenem</t>
+          <t>Lomefloxacin</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2519,12 +2519,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>metacycline</t>
+          <t>Loracarbef</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Second-generation cephalosporins</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2536,24 +2536,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>metampicillin</t>
+          <t>Lymecycline</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>meticillin</t>
+          <t>Mecillinam</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2570,46 +2570,46 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>metronidazole</t>
+          <t>Meropenem</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Imidazoles</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>mezlocillin</t>
+          <t>Meropenem,vaborbactam</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>micronomicin</t>
+          <t>Metacycline</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2621,63 +2621,63 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>midecamycin</t>
+          <t>Metampicillin</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>minocycline</t>
+          <t>Meticillin</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>miocamycin</t>
+          <t>Metronidazole</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Imidazoles</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>moxifloxacin</t>
+          <t>Mezlocillin</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2689,29 +2689,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>nafcillin</t>
+          <t>Micronomicin</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>nemonoxacin</t>
+          <t>Midecamycin</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2723,29 +2723,29 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>neomycin</t>
+          <t>Minocycline</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>netilmicin</t>
+          <t>Miocamycin</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2757,29 +2757,29 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>nifurtoinol</t>
+          <t>Moxifloxacin</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Nitrofuran derivatives</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>nitrofurantoin</t>
+          <t>Nafcillin</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nitrofuran-derivatives</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2791,12 +2791,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>norfloxacin</t>
+          <t>Nemonoxacin</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2808,12 +2808,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ofloxacin</t>
+          <t>Neomycin</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2825,12 +2825,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>oleandomycin</t>
+          <t>Netilmicin</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2842,80 +2842,80 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>omadacycline</t>
+          <t>Nifurtoinol</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Nitrofuran derivatives</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>oritavancin</t>
+          <t>Nitrofurantoin</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Nitrofuran-derivatives</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ornidazole</t>
+          <t>Norfloxacin</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Imidazoles</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>oxacillin</t>
+          <t>Ofloxacin</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>oxolinic</t>
+          <t>Oleandomycin</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2927,7 +2927,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>oxytetracycline</t>
+          <t>Omadacycline</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2937,82 +2937,82 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>panipenem</t>
+          <t>Oritavancin</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Glycopeptides</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>pazufloxacin</t>
+          <t>Ornidazole</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Imidazoles</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>pefloxacin</t>
+          <t>Oxacillin</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>penamecillin</t>
+          <t>Oxolinic</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>penimepicycline</t>
+          <t>Oxytetracycline</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3029,12 +3029,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>pheneticillin</t>
+          <t>Panipenem</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3046,29 +3046,29 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>phenoxymethylpenicillin</t>
+          <t>Pazufloxacin</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>pipemidic</t>
+          <t>Pefloxacin</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3080,7 +3080,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>piperacillin</t>
+          <t>Penamecillin</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3090,19 +3090,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>piromidic</t>
+          <t>Penimepicycline</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3114,7 +3114,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>pivampicillin</t>
+          <t>Pheneticillin</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3124,14 +3124,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>pivmecillinam</t>
+          <t>Phenoxymethylpenicillin</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3148,46 +3148,46 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>plazomicin</t>
+          <t>Pipemidic</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>polymyxin b</t>
+          <t>Piperacillin</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Polymyxins</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pristinamycin</t>
+          <t>Piperacillin,tazobactam</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Streptogramins</t>
+          <t>Beta-lactam/beta-lactamase-inhibitor anti-pseudomonal</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3199,24 +3199,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>benzylpenicillin,procaine</t>
+          <t>Piromidic</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>propicillin</t>
+          <t>Pivampicillin</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3233,24 +3233,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>prulifloxacin</t>
+          <t>Pivmecillinam</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ribostamycin</t>
+          <t>Plazomicin</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3260,36 +3260,36 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rifabutin</t>
+          <t>Polymyxin B</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Rifamycins</t>
+          <t>Polymyxins</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>rifampicin</t>
+          <t>Pristinamycin</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Rifamycins</t>
+          <t>Streptogramins</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3301,46 +3301,46 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>rifamycin</t>
+          <t>benzylpenicillin,Procaine</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Rifamycins</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>rifaximin</t>
+          <t>Propicillin</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Rifamycins</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>rokitamycin</t>
+          <t>Prulifloxacin</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3352,12 +3352,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>rolitetracycline</t>
+          <t>Ribostamycin</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3369,12 +3369,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>rosoxacin</t>
+          <t>Rifabutin</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Rifamycins</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3386,12 +3386,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>roxithromycin</t>
+          <t>Rifampicin</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Rifamycins</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3403,12 +3403,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>rufloxacin</t>
+          <t>Rifamycin</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Rifamycins</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3420,12 +3420,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>sarecycline</t>
+          <t>Rifaximin</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Rifamycins</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3437,29 +3437,29 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>secnidazole</t>
+          <t>Rokitamycin</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Imidazoles</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>sisomicin</t>
+          <t>Rolitetracycline</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3471,12 +3471,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>sitafloxacin</t>
+          <t>Rosoxacin</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3488,7 +3488,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>solithromycin</t>
+          <t>Roxithromycin</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3505,7 +3505,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>sparfloxacin</t>
+          <t>Rufloxacin</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3522,41 +3522,41 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>spectinomycin</t>
+          <t>Sarecycline</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Aminocyclitols</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>spiramycin</t>
+          <t>Secnidazole</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Imidazoles</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>streptoduocin</t>
+          <t>Sisomicin</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3573,12 +3573,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>streptomycin</t>
+          <t>Sitafloxacin</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3590,29 +3590,29 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>sulbactam</t>
+          <t>Solithromycin</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Beta-lactamase-inhibitors</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>sulbenicillin</t>
+          <t>Sparfloxacin</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3624,12 +3624,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>sulfadiazine</t>
+          <t>Spectinomycin</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sulfonamides</t>
+          <t>Aminocyclitols</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3641,63 +3641,63 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>sulfadiazine,tetroxoprim</t>
+          <t>Spiramycin</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sulfonamide-trimethoprim combinations</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>sulfadiazine,trimethoprim</t>
+          <t>Streptoduocin</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sulfonamide-trimethoprim combinations</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>sulfadimethoxine</t>
+          <t>Streptomycin</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sulfonamides</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sulfadimidine</t>
+          <t>Sulbactam</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sulfonamides</t>
+          <t>Beta-lactamase-inhibitors</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3709,24 +3709,24 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>sulfadimidine,trimethoprim</t>
+          <t>Sulbenicillin</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sulfonamide-trimethoprim combinations</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sulfafurazole</t>
+          <t>Sulfadiazine</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3743,12 +3743,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>sulfaisodimidine</t>
+          <t>Sulfadiazine,tetroxoprim</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sulfonamides</t>
+          <t>Sulfonamide-trimethoprim combinations</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3760,12 +3760,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sulfalene</t>
+          <t>Sulfadiazine,trimethoprim</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sulfonamides</t>
+          <t>Sulfonamide-trimethoprim combinations</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3777,7 +3777,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sulfamazone</t>
+          <t>Sulfadimethoxine</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3794,7 +3794,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>sulfamerazine</t>
+          <t>Sulfadimidine</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3811,7 +3811,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sulfamerazine,trimethoprim</t>
+          <t>Sulfadimidine,trimethoprim</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3828,7 +3828,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sulfamethizole</t>
+          <t>Sulfafurazole</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3845,7 +3845,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>sulfamethoxazole</t>
+          <t>Sulfaisodimidine</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3862,12 +3862,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sulfamethoxazole,trimethoprim</t>
+          <t>Sulfalene</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sulfonamide-trimethoprim combinations</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3879,7 +3879,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>sulfamethoxypyridazine</t>
+          <t>Sulfamazone</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3896,7 +3896,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>sulfametomidine</t>
+          <t>Sulfamerazine</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3913,12 +3913,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sulfametoxydiazine</t>
+          <t>Sulfamerazine,trimethoprim</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sulfonamides</t>
+          <t>Sulfonamide-trimethoprim combinations</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3930,12 +3930,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>sulfametrole,trimethoprim</t>
+          <t>Sulfamethizole</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sulfonamide-trimethoprim combinations</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3947,7 +3947,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>sulfamoxole</t>
+          <t>Sulfamethoxazole</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sulfamoxole,trimethoprim</t>
+          <t>Sulfamethoxazole,trimethoprim</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3981,7 +3981,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>sulfanilamide</t>
+          <t>Sulfamethoxypyridazine</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3998,7 +3998,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>sulfaperin</t>
+          <t>Sulfametomidine</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4015,7 +4015,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>sulfaphenazole</t>
+          <t>Sulfametoxydiazine</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4032,12 +4032,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sulfapyridine</t>
+          <t>Sulfametrole,trimethoprim</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sulfonamides</t>
+          <t>Sulfonamide-trimethoprim combinations</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4049,7 +4049,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>sulfathiazole</t>
+          <t>Sulfamoxole</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4066,12 +4066,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>sulfathiourea</t>
+          <t>Sulfamoxole,trimethoprim</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sulfonamides</t>
+          <t>Sulfonamide-trimethoprim combinations</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4083,12 +4083,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>sultamicillin</t>
+          <t>Sulfanilamide</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Beta-lactam/beta-lactamase-inhibitor</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4100,12 +4100,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>talampicillin</t>
+          <t>Sulfaperin</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4117,114 +4117,114 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>tazobactam</t>
+          <t>Sulfaphenazole</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Beta-lactamase-inhibitors</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>tebipenem</t>
+          <t>Sulfapyridine</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Carbapenems</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>tedizolid</t>
+          <t>Sulfathiazole</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Oxazolidinones</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>teicoplanin</t>
+          <t>Sulfathiourea</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Sulfonamides</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>telavancin</t>
+          <t>Sultamicillin</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Beta-lactam/beta-lactamase-inhibitor</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>telithromycin</t>
+          <t>Talampicillin</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>temafloxacin</t>
+          <t>Tazobactam</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Beta-lactamase-inhibitors</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4236,12 +4236,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>temocillin</t>
+          <t>Tebipenem</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4253,97 +4253,97 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>tetracycline</t>
+          <t>Tedizolid</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Tetracyclines</t>
+          <t>Oxazolidinones</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>thiamphenicol</t>
+          <t>Teicoplanin</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Amphenicols</t>
+          <t>Glycopeptides</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ticarcillin</t>
+          <t>Telavancin</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Glycopeptides</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>tigecycline</t>
+          <t>Telithromycin</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Glycylcyclines</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Reserve</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>tinidazole</t>
+          <t>Temafloxacin</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Imidazoles</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>tobramycin</t>
+          <t>Temocillin</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4355,29 +4355,29 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>tosufloxacin</t>
+          <t>Tetracycline</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Tetracyclines</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>trimethoprim</t>
+          <t>Thiamphenicol</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Trimethoprim-derivatives</t>
+          <t>Amphenicols</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4389,12 +4389,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>troleandomycin</t>
+          <t>Ticarcillin</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Penicillins</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4406,359 +4406,369 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>trovafloxacin</t>
+          <t>Tigecycline</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Fluoroquinolones</t>
+          <t>Glycylcyclines</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Reserve</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>vancomycin</t>
+          <t>Tinidazole</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Imidazoles</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>fluconazole</t>
+          <t>Tobramycin</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Triazole and tetrazole derivatives</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>nystatin</t>
+          <t>Tosufloxacin</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Antibiotics - Intestinal antiinfectives</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>amoxicillin,flucloxacillin</t>
+          <t>Trimethoprim</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Trimethoprim-derivatives</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Not recommended</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>benzathine benzylpenicillin,benzylpenicillin</t>
+          <t>Troleandomycin</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ampicillin,cloxacillin</t>
+          <t>Trovafloxacin</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Not recommended</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>amoxicillin,cloxacillin</t>
+          <t>Vancomycin</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Glycopeptides</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Not recommended</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ampicillin cloxacillin</t>
+          <t>amikacin</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Not recommended</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>epicephin</t>
+          <t>gentamicin</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ceftriaxone,salinomycin</t>
+          <t>chloramphenicol</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Amphenicols</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>benzylpenicillin,procaine benzylpenicillin</t>
+          <t>meropenem</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Carbapenems</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>cefuzonam</t>
+          <t>cefazolin</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Second-generation cephalosporin</t>
+          <t>First-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>nitazoxanide</t>
+          <t>cefalexin</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Other agents against amoebiasis and other protozoal diseases</t>
+          <t>First-generation-cephalosporins</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>amoxicillin,amoxicillin,flucloxacillin,flucloxacillin</t>
+          <t>ciprofloxacin</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Not recommended</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>isoniazid</t>
+          <t>levofloxacin</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Hydrazides</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>flucytosine</t>
+          <t>moxifloxacin</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Other antimycotics for systemic use</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+          <t>ofloxacin</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Combinations of drugs for treatment of tuberculosis</t>
+          <t>Fluoroquinolones</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>cloxacillin,flloxacillin</t>
+          <t>cefepime</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Penicillins</t>
+          <t>Fourth-generation-cephalosporins</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Not recommended</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>pyrazinamide</t>
+          <t>clindamycin</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Other drugs for treatment of tuberculosis</t>
+          <t>Lincosamides</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ethambutol</t>
+          <t>azithromycin</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Other drugs for treatment of tuberculosis</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Uncategorized</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>cefixime,clavulanic</t>
+          <t>erythromycin</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4770,49 +4780,5111 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>amoxicillin,clavulanic</t>
+          <t>clarithromycin</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Penicillins, incl. beta-lactamase inhibitors</t>
+          <t>Macrolides</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Watch</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>cefixime,clavulanic</t>
+          <t>nitrofurantoin</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Third-generation cephalosporins</t>
+          <t>Nitrofuran-derivatives</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Watch</t>
+          <t>Access</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
+          <t>cefiderocol</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Other-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>linezolid</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Oxazolidinones</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>flucloxacillin</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ampicillin</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>amoxicillin</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>phenoxymethylpenicillin</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>cloxacillin</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>piperacillin,tazobactam</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>piperacillin</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>epicillin</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>rifaximin</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Rifamycins</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Rifamycins</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>cefuroxime</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Second-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>cefbuperazone</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Second-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>sulfadimethoxine</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Sulfonamides</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>doxycycline</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ceftriaxone</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>cefotaxime</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ceftazidime</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>cefixime</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>cefoperazone</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ceftriaxone,sulbactum</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ceftriaxone,sulbactam</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ceftriaxone,salbactam</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>avibactam,ceftazidime</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>cefoperazone,sulbactum</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>cefoperazone,sulbactam</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>cefoperazone,salbactam</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Third-generation-cephalosporins</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>fluconazole</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Triazole and tetrazole derivatives</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>tinidazole</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Imidazole derivatives</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ornidazole</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Imidazole derivatives</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>nystatin</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Antibiotics - Intestinal antiinfectives</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>rifamycin</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Antibiotics - Intestinal antiinfectives</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>metronidazole</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Nitroimidazole derivatives</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>vancomycin</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Glycopeptide antibacterials</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>amoxicillin,flucloxacillin</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>colistin</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Polymyxins</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>polymyxin b</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Polymyxins</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>benzathine benzylpenicillin,benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ampicillin,cloxacillin</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>sulfamethoxazole,trimethoprim</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>amoxicillin,cloxacillin</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ampicillin cloxacillin</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>imipenem</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>epicephin</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ceftriaxone,salinomycin</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>benzylpenicillin,procaine benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>cefuzonam</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporin</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>nitazoxanide</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Other agents against amoebiasis and other protozoal diseases</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>amoxicillin,amoxicillin,flucloxacillin,flucloxacillin</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Hydrazides</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>flucytosine</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Other antimycotics for systemic use</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Combinations of drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>cloxacillin,flloxacillin</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Penicillins</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Other drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Other drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>demeclocycline</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>chlortetracycline</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>lymecycline</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>metacycline</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>oxytetracycline</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>tetracycline</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>minocycline</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>rolitetracycline</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>clomocycline</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>tigecycline</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>eravacycline</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>sarecycline</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>omadacycline</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Tetracyclines</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>thiamphenicol</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Amphenicols</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>pivampicillin</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>carbenicillin</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>carindacillin</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>bacampicillin</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>pivmecillinam</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>azlocillin</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>mezlocillin</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>mecillinam</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ticarcillin</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>metampicillin</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>talampicillin</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>sulbenicillin</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>temocillin</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>hetacillin</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>aspoxicillin</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>propicillin</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Beta-lactamase sensitive penicillins</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>azidocillin</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Beta-lactamase sensitive penicillins</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>pheneticillin</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Beta-lactamase sensitive penicillins</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>penamecillin</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Beta-lactamase sensitive penicillins</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>clometocillin</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Beta-lactamase sensitive penicillins</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>benzathine phenoxymethylpenicillin</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Beta-lactamase sensitive penicillins</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>dicloxacillin</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Beta-lactamase resistant penicillins</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>meticillin</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Beta-lactamase resistant penicillins</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>oxacillin</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Beta-lactamase resistant penicillins</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>nafcillin</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Beta-lactamase resistant penicillins</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>sulbactam</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Beta-lactamase inhibitors</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ampicillin and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Combinations of penicillins, incl. beta-lactamase inhibitors</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>amoxicillin and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Combinations of penicillins, incl. beta-lactamase inhibitors</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ticarcillin and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Combinations of penicillins, incl. beta-lactamase inhibitors</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>sultamicillin</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Combinations of penicillins, incl. beta-lactamase inhibitors</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>piperacillin and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Combinations of penicillins, incl. beta-lactamase inhibitors</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>cefaloridine</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>First-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>cefalotin</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>First-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>cefadroxil</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>First-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>cefazedone</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>First-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>cefatrizine</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>First-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>cefapirin</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>First-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>cefradine</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>First-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>cefroxadine</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>First-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ceftezole</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>First-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>cefoxitin</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>cefamandole</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>cefaclor</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>cefotetan</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>cefonicid</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>cefotiam</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>loracarbef</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>cefmetazole</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>cefprozil</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ceforanide</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>cefminox</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>flomoxef</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>cefuroxime and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Second-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>cefsulodin</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>cefmenoxime</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>latamoxef</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ceftizoxime</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>cefodizime</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>cefetamet</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>cefpiramide</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>cefpodoxime</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ceftibuten</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>cefdinir</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>cefditoren</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>cefcapene</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>cefteram</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ceftazidime and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>cefoperazone and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ceftriaxone and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>cefpodoxime and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Third-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>cefpirome</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Fourth-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>cefozopran</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Fourth-generation cephalosporins</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>aztreonam</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Monobactams</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>carumonam</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Monobactams</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ertapenem</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>doripenem</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>biapenem</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>tebipenem pivoxil</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>imipenem and cilastatin</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>meropenem and vaborbactam</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>panipenem and betamipron</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>imipenem, cilastatin and relebactam</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ceftobiprole medocaril</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Other cephalosporins and penems</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>ceftaroline fosamil</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Other cephalosporins and penems</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>faropenem</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Other cephalosporins and penems</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>ceftolozane and beta-lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Other cephalosporins and penems</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>trimethoprim</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Trimethoprim and derivatives</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>brodimoprim</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Trimethoprim and derivatives</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>sulfaisodimidine</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Short-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>sulfamethizole</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Short-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>sulfadimidine</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Short-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>sulfapyridine</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Short-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>sulfafurazole</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Short-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>sulfathiourea</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Short-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>sulfamethoxazole</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Intermediate-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>sulfadiazine</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Intermediate-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>sulfamoxole</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Intermediate-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>sulfalene</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Long-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>sulfametoxydiazine</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Long-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>sulfamethoxypyridazine</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Long-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>sulfaperin</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Long-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>sulfamerazine</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Long-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>sulfaphenazole</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Long-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>sulfamazone</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Long-acting sulfonamides</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>spiramycin</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>midecamycin</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>oleandomycin</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>roxithromycin</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>josamycin</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>troleandomycin</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>miocamycin</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>rokitamycin</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>dirithromycin</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>flurithromycin</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>telithromycin</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>lincomycin</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Lincosamides</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>pristinamycin</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Streptogramins</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>quinupristin/dalfopristin</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Streptogramins</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>streptomycin</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Streptomycins</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>streptoduocin</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Streptomycins</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>tobramycin</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>kanamycin</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>neomycin</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>netilmicin</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>sisomicin</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>dibekacin</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>ribostamycin</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>isepamicin</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>arbekacin</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>bekanamycin</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>pefloxacin</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>enoxacin</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>temafloxacin</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>norfloxacin</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>lomefloxacin</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>fleroxacin</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>sparfloxacin</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>rufloxacin</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>grepafloxacin</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>trovafloxacin</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>gemifloxacin</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>gatifloxacin</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>prulifloxacin</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>pazufloxacin</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>garenoxacin</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>sitafloxacin</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>tosufloxacin</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>delafloxacin</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>lascufloxacin</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>rosoxacin</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Other quinolones</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>nalidixic acid</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Other quinolones</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>piromidic acid</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Other quinolones</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>pipemidic acid</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Other quinolones</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>oxolinic acid</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Other quinolones</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>cinoxacin</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Other quinolones</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>flumequine</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Other quinolones</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>teicoplanin</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Glycopeptide antibacterials</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>dalbavancin</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Glycopeptide antibacterials</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>polymyxin B</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Polymyxins</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>fusidic acid</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Steroid antibacterials</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>nifurtoinol</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Nitrofuran derivatives</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>furazidin</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Nitrofuran derivatives</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>fosfomycin</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>clofoctol</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>spectinomycin</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>methenamine</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>mandelic acid</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>nitroxoline</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>daptomycin</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>tedizolid</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>nimorazole</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Nitroimidazole derivatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>secnidazole</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Nitroimidazole derivatives</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>natamycin</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Antibiotics - Intestinal antiinfectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>paromomycin</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Antibiotics - Intestinal antiinfectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>amphotericin B</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Antibiotics - Intestinal antiinfectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>fidaxomicin</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Antibiotics - Intestinal antiinfectives</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>chlortetracycline,demeclocycline,tetracycline</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Combinations of tetracyclines</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>pivampicillin,pivmecillinam</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum, combinations</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>benzathinebenzylpenicillin,benzylpenicillin,procainebenzylpenicillin</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Penicillins with extended spectrum, combinations</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>ampicillin,oxacillin</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Penicillins, combinations</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>ampicillin,flucloxacillin</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Penicillins, combinations</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>sulfacarbamide,sulfadiazine,sulfadimidine</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Intermediate-acting sulfonamides, combinations</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>sulfadiazine,trimethoprim</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>sulfametrole,trimethoprim</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>sulfadiazin,tetroxoprim</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>sulfamerazin,trimethoprim</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>metronidazole,spiramycin</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>levofloxacin,ornidazole</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>azithromycin,fluconazole,secnidazole</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>ofloxacin,ornidazole</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>ciprofloxacin,metronidazole</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>ciprofloxacin,tinidazole</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>ciprofloxacin,ornidazole</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>norfloxacin,tinidazole</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>azithromycin,cefixime</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>furazolidone,metronidazole</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>metronidazole and furazolidone</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>diloxanide,metronidazole</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>metronidazole and diloxanide</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Combinations of drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>isoniazid,pyrazinamide,rifampicin</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Combinations of drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>ethambutol,isoniazid,rifampicin</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Combinations of drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>amphotericin b</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Antibiotics - Antimycotics for systemic use</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>miconazole</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Imidazole derivatives</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>ketoconazole</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Imidazole derivatives</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>itraconazole</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Triazole and tetrazole derivatives</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Triazole and tetrazole derivatives</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>posaconazole</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Triazole and tetrazole derivatives</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>isavuconazole</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Triazole and tetrazole derivatives</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>oteseconazole</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Triazole and tetrazole derivatives</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>caspofungin</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Other antimycotics for systemic use</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>micafungin</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Other antimycotics for systemic use</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>anidulafungin</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Other antimycotics for systemic use</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>griseofulvin</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Antifungals for systemic use</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>terbinafine</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Antifungals for systemic use</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>fosravuconazole</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Antifungals for systemic use</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>4-aminosalicylic acid</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Aminosalicylic acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>sodium aminosalicylate</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Aminosalicylic acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>calcium aminosalicylate</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Aminosalicylic acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>cycloserine</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Antibiotics - drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>rifabutin</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Antibiotics - drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>rifapentine</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Antibiotics - drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>enviomycin</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Antibiotics - drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>capreomycin</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Antibiotics - drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>protionamide</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Thiocarbamide derivatives</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>tiocarlide</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Thiocarbamide derivatives</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>ethionamide</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Thiocarbamide derivatives</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>bedaquiline</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Other drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>delamanid</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Other drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>pretomanid</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Other drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>inhibitor,piperacillin</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Penicillins, incl. beta-lactamase inhibitors</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>cilastatin,imipenem</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Carbapenems</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
           <t>amoxicillin,clavulanic</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B564" t="inlineStr">
         <is>
           <t>Penicillins, incl. beta-lactamase inhibitors</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C564" t="inlineStr">
         <is>
           <t>Access</t>
         </is>
